--- a/metadata_files/06_metadata_phenology/01_WORKING_monthly_datatypes/Antipodean Albatross_Antipodes Islands.xlsx
+++ b/metadata_files/06_metadata_phenology/01_WORKING_monthly_datatypes/Antipodean Albatross_Antipodes Islands.xlsx
@@ -3677,13 +3677,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C308E0F4-FBB9-47B8-961B-0B28D2549184}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8533151-9943-4E12-90A8-1CEC15A70EFF}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC11F802-ACE9-472D-9BED-97859BC78C8C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3974DCB2-5BB1-4D2A-B227-A509634B5D91}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CBA7D431-2933-49FC-ADAA-B543AE166609}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F7E1503-1F22-41E5-8390-45F3AEF1987B}"/>
 </file>